--- a/baidu_history_xlsx/baidu_新党.xlsx
+++ b/baidu_history_xlsx/baidu_新党.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+  <si>
+    <t>落_尘之后</t>
+  </si>
   <si>
     <t>156uvwx</t>
   </si>
@@ -498,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +580,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -588,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -775,7 +778,7 @@
         <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -786,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -797,7 +800,7 @@
         <v>25</v>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -808,7 +811,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -885,7 +888,7 @@
         <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -896,7 +899,7 @@
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1006,6 +1009,17 @@
         <v>44</v>
       </c>
       <c r="C46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
         <v>1</v>
       </c>
     </row>
